--- a/BluetoothLocator-main/data/728data_square_large_2.xlsx
+++ b/BluetoothLocator-main/data/728data_square_large_2.xlsx
@@ -1215,14 +1215,15 @@
   <sheetPr/>
   <dimension ref="A1:F474"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F241"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="17.9090909090909" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="6" max="6" width="14.0909090909091" customWidth="1"/>
     <col min="8" max="8" width="12.8181818181818"/>
   </cols>
   <sheetData>
